--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579642.9800400217</v>
+        <v>576361.3121643837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514386</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5477185.456223349</v>
+        <v>5477185.456223348</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>37.18582309281558</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,58 +908,58 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82.96396779500076</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>110.1113226016109</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U8" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1230,10 +1230,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.21245223256828</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1622,7 +1622,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>110.0817264605106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,61 +1856,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,10 +1986,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,67 +2084,67 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>11.86372679529251</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>49.3111039422953</v>
+        <v>109.4031921034047</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2257,49 +2257,49 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,64 +2327,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>121.0964745243358</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2448,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>33.19332575419081</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V26" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>109.3261938847033</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.0524176386246</v>
       </c>
     </row>
     <row r="28">
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.3453970742848</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>88.55090549590537</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>116.0367764965383</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>202.2946864288974</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,10 +3168,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X33" t="n">
-        <v>145.4287699906872</v>
+        <v>34.66067414728042</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3205,46 +3205,46 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>212.2853856434422</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>109.4031921034046</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>50.46697834767972</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>208.2638363878125</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>110.8320796684429</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y2" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U2" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V2" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2300195200815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>205.7769902389545</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>56.84258057770322</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4449,10 +4449,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>548.4453565401495</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>23.90796037760316</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4860,43 +4860,43 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -5084,7 +5084,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C12" t="n">
-        <v>688.4345967823949</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D12" t="n">
-        <v>539.5001871211437</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E12" t="n">
-        <v>380.2627321156882</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F12" t="n">
-        <v>233.7281741425731</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G12" t="n">
-        <v>94.99734872518863</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="H12" t="n">
-        <v>94.99734872518863</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5318,10 +5318,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5364,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="19">
@@ -5710,10 +5710,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
         <v>20.03527576299844</v>
@@ -5838,16 +5838,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>914.2479596093278</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U21" t="n">
-        <v>914.2479596093278</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V21" t="n">
-        <v>679.0958513775852</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W21" t="n">
-        <v>435.6470747334852</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X21" t="n">
-        <v>227.7955745279523</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.3549469997013</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>930.5285436377162</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>702.3049253741053</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>467.1528171423627</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.5702840197694</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6236,40 +6236,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>243.8349102288568</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C27" t="n">
-        <v>243.8349102288568</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D27" t="n">
-        <v>243.8349102288568</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E27" t="n">
-        <v>243.8349102288568</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F27" t="n">
-        <v>243.8349102288568</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6312,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696777</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X27" t="n">
-        <v>243.8349102288568</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y27" t="n">
-        <v>243.8349102288568</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="28">
@@ -6415,13 +6415,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6473,40 +6473,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>720.608378866536</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.4806348497715</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084243</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200709</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>471.2443511720523</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>471.2443511720523</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X30" t="n">
-        <v>485.4562706347935</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.6959718698396</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6664,7 +6664,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.5167634983092</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6789,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084243</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057911</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740484</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994836</v>
       </c>
       <c r="X33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389062</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389062</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6935,7 +6935,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6953,34 +6953,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830062</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830062</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,31 +7020,31 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U36" t="n">
         <v>914.2479596093278</v>
@@ -7059,7 +7059,7 @@
         <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584186</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584186</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584186</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584186</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224362</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7427,34 +7427,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441254</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,43 +7497,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>934.7112791079849</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>706.487660844374</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V42" t="n">
-        <v>471.3355526126313</v>
+        <v>853.5488806587122</v>
       </c>
       <c r="W42" t="n">
-        <v>227.8867759685313</v>
+        <v>610.1001040146122</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>402.2486038090793</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441254</v>
       </c>
     </row>
     <row r="43">
@@ -7594,16 +7594,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7731,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>234.8108274061909</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>548.7494357975979</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>548.7494357975979</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,19 +10668,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361377</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.4592573625854</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22689,10 +22689,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>256.5108343207664</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22869,22 +22869,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>47.53375785379006</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,16 +23069,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U8" t="n">
-        <v>160.9567151697601</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23118,10 +23118,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>15.1841806188468</v>
+        <v>59.50733446035932</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,19 +23391,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23510,7 +23510,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>27.26179070270005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,13 +23744,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>138.0478248410352</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,10 +23862,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23972,25 +23972,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24099,13 +24099,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>150.8536247525263</v>
+        <v>90.76153659141691</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24145,7 +24145,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>51.61202446397989</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,10 +24300,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,19 +24336,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>166.9714029406308</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24406,16 +24406,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,10 +24534,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>28.01732327850738</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386798</v>
       </c>
     </row>
     <row r="28">
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.3884445891958</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,7 +24692,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>84.15759349241037</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,19 +24807,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>109.9046055844365</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421101</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25014,7 +25014,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,10 +25056,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X33" t="n">
-        <v>60.34421521279029</v>
+        <v>171.1123110561971</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>302.2574731329354</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25287,13 +25287,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25333,7 +25333,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716928</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,10 +25628,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>123.3973950460207</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>200.8786745601568</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.9741022682411</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25953,10 +25953,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>115.1093024125319</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20952.65529224539</v>
+        <v>-21344.88553779093</v>
       </c>
       <c r="C6" t="n">
-        <v>59816.77623930235</v>
+        <v>59424.54599375678</v>
       </c>
       <c r="D6" t="n">
-        <v>59816.77623930234</v>
+        <v>59424.54599375677</v>
       </c>
       <c r="E6" t="n">
-        <v>93444.37623930231</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="F6" t="n">
-        <v>93444.37623930229</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="G6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="H6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="I6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375681</v>
       </c>
       <c r="J6" t="n">
-        <v>30384.4336401961</v>
+        <v>29992.20339465059</v>
       </c>
       <c r="K6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="L6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="M6" t="n">
-        <v>93444.37623930235</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="N6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="O6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="P6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
     </row>
   </sheetData>
@@ -26811,25 +26811,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37792,10 +37792,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141194</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
